--- a/ResultatsBancTest/HBExtension.xlsx
+++ b/ResultatsBancTest/HBExtension.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/louis-maxencehotton/Desktop/ProjetCapteurGraphite2022-LM-TL/ResultatsBancTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B70F3F-F5B6-5643-B6CB-0BBD60333045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAAD808-2319-D644-A77B-1567D2D68132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{B26EA290-846E-45D4-B3C9-7CE18360FD2C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{B26EA290-846E-45D4-B3C9-7CE18360FD2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1553,247 +1553,247 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.3533190578160476E-3</c:v>
+                  <c:v>0.53533190578160472</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.8904694167851756E-3</c:v>
+                  <c:v>0.8890469416785175</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1702127659574284E-2</c:v>
+                  <c:v>1.1702127659574284</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.4846235418875864E-2</c:v>
+                  <c:v>1.4846235418875864</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.7624250969333895E-2</c:v>
+                  <c:v>1.7624250969333897</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.9352568613652261E-2</c:v>
+                  <c:v>1.9352568613652259</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2448263767099283E-2</c:v>
+                  <c:v>2.2448263767099284</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4159663865546202E-2</c:v>
+                  <c:v>2.4159663865546204</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.450122506125316E-2</c:v>
+                  <c:v>2.4501225061253162</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.8242677824267769E-2</c:v>
+                  <c:v>2.824267782426777</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.2627559875043489E-2</c:v>
+                  <c:v>3.2627559875043493</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.4972299168974916E-2</c:v>
+                  <c:v>3.4972299168974916</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.697304768486516E-2</c:v>
+                  <c:v>3.6973047684865161</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.5874700445053179E-2</c:v>
+                  <c:v>4.5874700445053174</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.880546075085318E-2</c:v>
+                  <c:v>4.8805460750853173</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.9778383907262164E-2</c:v>
+                  <c:v>4.977838390726216</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.2363141788507282E-2</c:v>
+                  <c:v>5.2363141788507281</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.717185385656294E-2</c:v>
+                  <c:v>5.7171853856562942</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.8127745860088058E-2</c:v>
+                  <c:v>5.812774586008806</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.3508064516129045E-2</c:v>
+                  <c:v>6.3508064516129048</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.7892976588628723E-2</c:v>
+                  <c:v>6.7892976588628713</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>7.1000000000000021E-2</c:v>
+                  <c:v>7.1000000000000023</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.2545757071547409E-2</c:v>
+                  <c:v>7.254575707154741</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.5008297378028541E-2</c:v>
+                  <c:v>7.5008297378028539</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.959048877146635E-2</c:v>
+                  <c:v>7.9590488771466346</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.8982154659616624E-2</c:v>
+                  <c:v>7.8982154659616617</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.9286422200198284E-2</c:v>
+                  <c:v>7.9286422200198281</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.7127415656731086E-2</c:v>
+                  <c:v>8.7127415656731095</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.5329832622251328E-2</c:v>
+                  <c:v>8.5329832622251338</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.832188420019628E-2</c:v>
+                  <c:v>8.8321884200196266</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9.6303501945525213E-2</c:v>
+                  <c:v>9.6303501945525216</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9.3658536585365937E-2</c:v>
+                  <c:v>9.3658536585365937</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.10125765881973559</c:v>
+                  <c:v>10.125765881973559</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.10816000000000002</c:v>
+                  <c:v>10.816000000000004</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.11128826530612251</c:v>
+                  <c:v>11.128826530612251</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.11495712924738015</c:v>
+                  <c:v>11.495712924738015</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.11664025356576871</c:v>
+                  <c:v>11.664025356576872</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.11831698829484356</c:v>
+                  <c:v>11.831698829484356</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.12220472440944879</c:v>
+                  <c:v>12.22047244094488</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.12496075353218201</c:v>
+                  <c:v>12.496075353218203</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.1266060795988718</c:v>
+                  <c:v>12.66060795988718</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.12933458294283029</c:v>
+                  <c:v>12.933458294283028</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.13042121684867386</c:v>
+                  <c:v>13.042121684867386</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.13339552238805966</c:v>
+                  <c:v>13.339552238805966</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.13500931098696464</c:v>
+                  <c:v>13.500931098696464</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.13042121684867386</c:v>
+                  <c:v>13.042121684867386</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.13608183508989463</c:v>
+                  <c:v>13.608183508989462</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.13608183508989463</c:v>
+                  <c:v>13.608183508989462</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.13500931098696464</c:v>
+                  <c:v>13.500931098696464</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.13447204968944107</c:v>
+                  <c:v>13.447204968944106</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.13527769159168487</c:v>
+                  <c:v>13.527769159168487</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.13634955066625334</c:v>
+                  <c:v>13.634955066625336</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.13795236622332191</c:v>
+                  <c:v>13.795236622332192</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.1400802221536562</c:v>
+                  <c:v>14.008022215365623</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.14219759926131112</c:v>
+                  <c:v>14.219759926131111</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.14640122511485446</c:v>
+                  <c:v>14.640122511485446</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.14874770922419062</c:v>
+                  <c:v>14.874770922419062</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.14926739926739946</c:v>
+                  <c:v>14.926739926739947</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.15442961165048552</c:v>
+                  <c:v>15.442961165048553</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.15494238932686469</c:v>
+                  <c:v>15.494238932686468</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.15902232951116479</c:v>
+                  <c:v>15.902232951116481</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.16130003009328933</c:v>
+                  <c:v>16.130003009328934</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.16306306306306323</c:v>
+                  <c:v>16.306306306306322</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.16256009615384626</c:v>
+                  <c:v>16.256009615384624</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.16531895777178798</c:v>
+                  <c:v>16.531895777178796</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.1683079677708148</c:v>
+                  <c:v>16.830796777081481</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.17348754448398576</c:v>
+                  <c:v>17.348754448398576</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.17397747480735037</c:v>
+                  <c:v>17.397747480735038</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.17519976324356321</c:v>
+                  <c:v>17.519976324356321</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.18029411764705883</c:v>
+                  <c:v>18.02941176470588</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.18029411764705883</c:v>
+                  <c:v>18.02941176470588</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.18484937116115815</c:v>
+                  <c:v>18.484937116115816</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.18722659667541555</c:v>
+                  <c:v>18.722659667541556</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.1912362159024957</c:v>
+                  <c:v>19.12362159024957</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.19520646838001726</c:v>
+                  <c:v>19.520646838001724</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.19497400346620467</c:v>
+                  <c:v>19.497400346620466</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.1959030582804385</c:v>
+                  <c:v>19.590305828043849</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.19543879907621248</c:v>
+                  <c:v>19.54387990762125</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.19497400346620447</c:v>
+                  <c:v>19.497400346620449</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.19636678200692043</c:v>
+                  <c:v>19.636678200692042</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.19706136560069148</c:v>
+                  <c:v>19.706136560069151</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1975,7 +1975,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="fr-FR"/>
-                  <a:t>Résistance relative (R-R0)/R0</a:t>
+                  <a:t> (R-R0)/R0 en %</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3590,8 +3590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2576AE2-F3BE-4E07-8AAD-28498D55A057}">
   <dimension ref="A1:X1040"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="W37" sqref="W37"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="63" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3647,7 +3647,7 @@
         <v>5.5739999999999998</v>
       </c>
       <c r="I2">
-        <f>(H2-5.574)/H2</f>
+        <f>100*(H2-5.574)/H2</f>
         <v>0</v>
       </c>
       <c r="X2">
@@ -3679,8 +3679,8 @@
         <v>5.604000000000001</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I66" si="2">(H3-5.574)/H3</f>
-        <v>5.3533190578160476E-3</v>
+        <f t="shared" ref="I3:I66" si="2">100*(H3-5.574)/H3</f>
+        <v>0.53533190578160472</v>
       </c>
       <c r="X3">
         <v>1</v>
@@ -3712,7 +3712,7 @@
       </c>
       <c r="I4">
         <f t="shared" si="2"/>
-        <v>8.8904694167851756E-3</v>
+        <v>0.8890469416785175</v>
       </c>
       <c r="X4">
         <v>2</v>
@@ -3744,7 +3744,7 @@
       </c>
       <c r="I5">
         <f t="shared" si="2"/>
-        <v>1.1702127659574284E-2</v>
+        <v>1.1702127659574284</v>
       </c>
       <c r="X5">
         <v>3</v>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
-        <v>1.4846235418875864E-2</v>
+        <v>1.4846235418875864</v>
       </c>
       <c r="X6">
         <v>4</v>
@@ -3808,7 +3808,7 @@
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
-        <v>1.7624250969333895E-2</v>
+        <v>1.7624250969333897</v>
       </c>
       <c r="X7">
         <v>5</v>
@@ -3840,7 +3840,7 @@
       </c>
       <c r="I8">
         <f t="shared" si="2"/>
-        <v>1.9352568613652261E-2</v>
+        <v>1.9352568613652259</v>
       </c>
       <c r="X8">
         <v>6</v>
@@ -3872,7 +3872,7 @@
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
-        <v>2.2448263767099283E-2</v>
+        <v>2.2448263767099284</v>
       </c>
       <c r="X9">
         <v>7</v>
@@ -3904,7 +3904,7 @@
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
-        <v>2.4159663865546202E-2</v>
+        <v>2.4159663865546204</v>
       </c>
       <c r="X10">
         <v>8</v>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="I11">
         <f t="shared" si="2"/>
-        <v>2.450122506125316E-2</v>
+        <v>2.4501225061253162</v>
       </c>
       <c r="X11">
         <v>9</v>
@@ -3968,7 +3968,7 @@
       </c>
       <c r="I12">
         <f t="shared" si="2"/>
-        <v>2.8242677824267769E-2</v>
+        <v>2.824267782426777</v>
       </c>
       <c r="X12">
         <v>10</v>
@@ -4000,7 +4000,7 @@
       </c>
       <c r="I13">
         <f t="shared" si="2"/>
-        <v>3.2627559875043489E-2</v>
+        <v>3.2627559875043493</v>
       </c>
       <c r="X13">
         <v>11</v>
@@ -4032,7 +4032,7 @@
       </c>
       <c r="I14">
         <f t="shared" si="2"/>
-        <v>3.4972299168974916E-2</v>
+        <v>3.4972299168974916</v>
       </c>
       <c r="X14">
         <v>12</v>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="I15">
         <f t="shared" si="2"/>
-        <v>3.697304768486516E-2</v>
+        <v>3.6973047684865161</v>
       </c>
       <c r="X15">
         <v>13</v>
@@ -4096,7 +4096,7 @@
       </c>
       <c r="I16">
         <f t="shared" si="2"/>
-        <v>4.5874700445053179E-2</v>
+        <v>4.5874700445053174</v>
       </c>
       <c r="X16">
         <v>14</v>
@@ -4128,7 +4128,7 @@
       </c>
       <c r="I17">
         <f t="shared" si="2"/>
-        <v>4.880546075085318E-2</v>
+        <v>4.8805460750853173</v>
       </c>
       <c r="X17">
         <v>15</v>
@@ -4160,7 +4160,7 @@
       </c>
       <c r="I18">
         <f t="shared" si="2"/>
-        <v>4.9778383907262164E-2</v>
+        <v>4.977838390726216</v>
       </c>
       <c r="X18">
         <v>16</v>
@@ -4192,7 +4192,7 @@
       </c>
       <c r="I19">
         <f t="shared" si="2"/>
-        <v>5.2363141788507282E-2</v>
+        <v>5.2363141788507281</v>
       </c>
       <c r="X19">
         <v>17</v>
@@ -4224,7 +4224,7 @@
       </c>
       <c r="I20">
         <f t="shared" si="2"/>
-        <v>5.717185385656294E-2</v>
+        <v>5.7171853856562942</v>
       </c>
       <c r="X20">
         <v>18</v>
@@ -4256,7 +4256,7 @@
       </c>
       <c r="I21">
         <f t="shared" si="2"/>
-        <v>5.8127745860088058E-2</v>
+        <v>5.812774586008806</v>
       </c>
       <c r="X21">
         <v>19</v>
@@ -4288,7 +4288,7 @@
       </c>
       <c r="I22">
         <f t="shared" si="2"/>
-        <v>6.3508064516129045E-2</v>
+        <v>6.3508064516129048</v>
       </c>
       <c r="X22">
         <v>20</v>
@@ -4320,7 +4320,7 @@
       </c>
       <c r="I23">
         <f t="shared" si="2"/>
-        <v>6.7892976588628723E-2</v>
+        <v>6.7892976588628713</v>
       </c>
       <c r="X23">
         <v>21</v>
@@ -4352,7 +4352,7 @@
       </c>
       <c r="I24">
         <f t="shared" si="2"/>
-        <v>7.1000000000000021E-2</v>
+        <v>7.1000000000000023</v>
       </c>
       <c r="X24">
         <v>22</v>
@@ -4384,7 +4384,7 @@
       </c>
       <c r="I25">
         <f t="shared" si="2"/>
-        <v>7.2545757071547409E-2</v>
+        <v>7.254575707154741</v>
       </c>
       <c r="X25">
         <v>23</v>
@@ -4416,7 +4416,7 @@
       </c>
       <c r="I26">
         <f t="shared" si="2"/>
-        <v>7.5008297378028541E-2</v>
+        <v>7.5008297378028539</v>
       </c>
       <c r="X26">
         <v>24</v>
@@ -4448,7 +4448,7 @@
       </c>
       <c r="I27">
         <f t="shared" si="2"/>
-        <v>7.959048877146635E-2</v>
+        <v>7.9590488771466346</v>
       </c>
       <c r="X27">
         <v>25</v>
@@ -4480,7 +4480,7 @@
       </c>
       <c r="I28">
         <f t="shared" si="2"/>
-        <v>7.8982154659616624E-2</v>
+        <v>7.8982154659616617</v>
       </c>
       <c r="X28">
         <v>26</v>
@@ -4512,7 +4512,7 @@
       </c>
       <c r="I29">
         <f t="shared" si="2"/>
-        <v>7.9286422200198284E-2</v>
+        <v>7.9286422200198281</v>
       </c>
       <c r="X29">
         <v>27</v>
@@ -4544,7 +4544,7 @@
       </c>
       <c r="I30">
         <f t="shared" si="2"/>
-        <v>8.7127415656731086E-2</v>
+        <v>8.7127415656731095</v>
       </c>
       <c r="X30">
         <v>28</v>
@@ -4576,7 +4576,7 @@
       </c>
       <c r="I31">
         <f t="shared" si="2"/>
-        <v>8.5329832622251328E-2</v>
+        <v>8.5329832622251338</v>
       </c>
       <c r="X31">
         <v>29</v>
@@ -4608,7 +4608,7 @@
       </c>
       <c r="I32">
         <f t="shared" si="2"/>
-        <v>8.832188420019628E-2</v>
+        <v>8.8321884200196266</v>
       </c>
       <c r="X32">
         <v>30</v>
@@ -4640,7 +4640,7 @@
       </c>
       <c r="I33">
         <f t="shared" si="2"/>
-        <v>9.6303501945525213E-2</v>
+        <v>9.6303501945525216</v>
       </c>
       <c r="X33">
         <v>31</v>
@@ -4672,7 +4672,7 @@
       </c>
       <c r="I34">
         <f t="shared" si="2"/>
-        <v>9.3658536585365937E-2</v>
+        <v>9.3658536585365937</v>
       </c>
       <c r="X34">
         <v>32</v>
@@ -4704,7 +4704,7 @@
       </c>
       <c r="I35">
         <f t="shared" si="2"/>
-        <v>0.10125765881973559</v>
+        <v>10.125765881973559</v>
       </c>
       <c r="X35">
         <v>33</v>
@@ -4736,7 +4736,7 @@
       </c>
       <c r="I36">
         <f t="shared" si="2"/>
-        <v>0.10816000000000002</v>
+        <v>10.816000000000004</v>
       </c>
       <c r="X36">
         <v>34</v>
@@ -4768,7 +4768,7 @@
       </c>
       <c r="I37">
         <f t="shared" si="2"/>
-        <v>0.11128826530612251</v>
+        <v>11.128826530612251</v>
       </c>
       <c r="X37">
         <v>35</v>
@@ -4800,7 +4800,7 @@
       </c>
       <c r="I38">
         <f t="shared" si="2"/>
-        <v>0.11495712924738015</v>
+        <v>11.495712924738015</v>
       </c>
       <c r="X38">
         <v>36</v>
@@ -4832,7 +4832,7 @@
       </c>
       <c r="I39">
         <f t="shared" si="2"/>
-        <v>0.11664025356576871</v>
+        <v>11.664025356576872</v>
       </c>
       <c r="X39">
         <v>37</v>
@@ -4864,7 +4864,7 @@
       </c>
       <c r="I40">
         <f t="shared" si="2"/>
-        <v>0.11831698829484356</v>
+        <v>11.831698829484356</v>
       </c>
       <c r="X40">
         <v>38</v>
@@ -4896,7 +4896,7 @@
       </c>
       <c r="I41">
         <f t="shared" si="2"/>
-        <v>0.12220472440944879</v>
+        <v>12.22047244094488</v>
       </c>
       <c r="X41">
         <v>39</v>
@@ -4928,7 +4928,7 @@
       </c>
       <c r="I42">
         <f t="shared" si="2"/>
-        <v>0.12496075353218201</v>
+        <v>12.496075353218203</v>
       </c>
       <c r="X42">
         <v>40</v>
@@ -4960,7 +4960,7 @@
       </c>
       <c r="I43">
         <f t="shared" si="2"/>
-        <v>0.1266060795988718</v>
+        <v>12.66060795988718</v>
       </c>
       <c r="X43">
         <v>41</v>
@@ -4992,7 +4992,7 @@
       </c>
       <c r="I44">
         <f t="shared" si="2"/>
-        <v>0.12933458294283029</v>
+        <v>12.933458294283028</v>
       </c>
       <c r="X44">
         <v>42</v>
@@ -5024,7 +5024,7 @@
       </c>
       <c r="I45">
         <f t="shared" si="2"/>
-        <v>0.13042121684867386</v>
+        <v>13.042121684867386</v>
       </c>
       <c r="X45">
         <v>43</v>
@@ -5056,7 +5056,7 @@
       </c>
       <c r="I46">
         <f t="shared" si="2"/>
-        <v>0.13339552238805966</v>
+        <v>13.339552238805966</v>
       </c>
       <c r="X46">
         <v>44</v>
@@ -5088,7 +5088,7 @@
       </c>
       <c r="I47">
         <f t="shared" si="2"/>
-        <v>0.13500931098696464</v>
+        <v>13.500931098696464</v>
       </c>
       <c r="X47">
         <v>45</v>
@@ -5120,7 +5120,7 @@
       </c>
       <c r="I48">
         <f t="shared" si="2"/>
-        <v>0.13042121684867386</v>
+        <v>13.042121684867386</v>
       </c>
       <c r="X48">
         <v>46</v>
@@ -5152,7 +5152,7 @@
       </c>
       <c r="I49">
         <f t="shared" si="2"/>
-        <v>0.13608183508989463</v>
+        <v>13.608183508989462</v>
       </c>
       <c r="X49">
         <v>47</v>
@@ -5184,7 +5184,7 @@
       </c>
       <c r="I50">
         <f t="shared" si="2"/>
-        <v>0.13608183508989463</v>
+        <v>13.608183508989462</v>
       </c>
       <c r="X50">
         <v>48</v>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="I51">
         <f t="shared" si="2"/>
-        <v>0.13500931098696464</v>
+        <v>13.500931098696464</v>
       </c>
       <c r="X51">
         <v>49</v>
@@ -5248,7 +5248,7 @@
       </c>
       <c r="I52">
         <f t="shared" si="2"/>
-        <v>0.13447204968944107</v>
+        <v>13.447204968944106</v>
       </c>
       <c r="X52">
         <v>50</v>
@@ -5280,7 +5280,7 @@
       </c>
       <c r="I53">
         <f t="shared" si="2"/>
-        <v>0.13527769159168487</v>
+        <v>13.527769159168487</v>
       </c>
       <c r="X53">
         <v>51</v>
@@ -5312,7 +5312,7 @@
       </c>
       <c r="I54">
         <f t="shared" si="2"/>
-        <v>0.13634955066625334</v>
+        <v>13.634955066625336</v>
       </c>
       <c r="X54">
         <v>52</v>
@@ -5344,7 +5344,7 @@
       </c>
       <c r="I55">
         <f t="shared" si="2"/>
-        <v>0.13795236622332191</v>
+        <v>13.795236622332192</v>
       </c>
       <c r="X55">
         <v>53</v>
@@ -5376,7 +5376,7 @@
       </c>
       <c r="I56">
         <f t="shared" si="2"/>
-        <v>0.1400802221536562</v>
+        <v>14.008022215365623</v>
       </c>
       <c r="X56">
         <v>54</v>
@@ -5408,7 +5408,7 @@
       </c>
       <c r="I57">
         <f t="shared" si="2"/>
-        <v>0.14219759926131112</v>
+        <v>14.219759926131111</v>
       </c>
       <c r="X57">
         <v>55</v>
@@ -5440,7 +5440,7 @@
       </c>
       <c r="I58">
         <f t="shared" si="2"/>
-        <v>0.14640122511485446</v>
+        <v>14.640122511485446</v>
       </c>
       <c r="X58">
         <v>56</v>
@@ -5472,7 +5472,7 @@
       </c>
       <c r="I59">
         <f t="shared" si="2"/>
-        <v>0.14874770922419062</v>
+        <v>14.874770922419062</v>
       </c>
       <c r="X59">
         <v>57</v>
@@ -5504,7 +5504,7 @@
       </c>
       <c r="I60">
         <f t="shared" si="2"/>
-        <v>0.14926739926739946</v>
+        <v>14.926739926739947</v>
       </c>
       <c r="X60">
         <v>58</v>
@@ -5536,7 +5536,7 @@
       </c>
       <c r="I61">
         <f t="shared" si="2"/>
-        <v>0.15442961165048552</v>
+        <v>15.442961165048553</v>
       </c>
       <c r="X61">
         <v>59</v>
@@ -5568,7 +5568,7 @@
       </c>
       <c r="I62">
         <f t="shared" si="2"/>
-        <v>0.15494238932686469</v>
+        <v>15.494238932686468</v>
       </c>
       <c r="X62">
         <v>60</v>
@@ -5600,7 +5600,7 @@
       </c>
       <c r="I63">
         <f t="shared" si="2"/>
-        <v>0.15902232951116479</v>
+        <v>15.902232951116481</v>
       </c>
       <c r="X63">
         <v>61</v>
@@ -5632,7 +5632,7 @@
       </c>
       <c r="I64">
         <f t="shared" si="2"/>
-        <v>0.16130003009328933</v>
+        <v>16.130003009328934</v>
       </c>
       <c r="X64">
         <v>62</v>
@@ -5664,7 +5664,7 @@
       </c>
       <c r="I65">
         <f t="shared" si="2"/>
-        <v>0.16306306306306323</v>
+        <v>16.306306306306322</v>
       </c>
       <c r="X65">
         <v>63</v>
@@ -5696,7 +5696,7 @@
       </c>
       <c r="I66">
         <f t="shared" si="2"/>
-        <v>0.16256009615384626</v>
+        <v>16.256009615384624</v>
       </c>
       <c r="X66">
         <v>64</v>
@@ -5727,8 +5727,8 @@
         <v>6.6779999999999999</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I83" si="5">(H67-5.574)/H67</f>
-        <v>0.16531895777178798</v>
+        <f t="shared" ref="I67:I83" si="5">100*(H67-5.574)/H67</f>
+        <v>16.531895777178796</v>
       </c>
       <c r="X67">
         <v>65</v>
@@ -5760,7 +5760,7 @@
       </c>
       <c r="I68">
         <f t="shared" si="5"/>
-        <v>0.1683079677708148</v>
+        <v>16.830796777081481</v>
       </c>
       <c r="X68">
         <v>66</v>
@@ -5792,7 +5792,7 @@
       </c>
       <c r="I69">
         <f t="shared" si="5"/>
-        <v>0.17348754448398576</v>
+        <v>17.348754448398576</v>
       </c>
       <c r="X69">
         <v>67</v>
@@ -5824,7 +5824,7 @@
       </c>
       <c r="I70">
         <f t="shared" si="5"/>
-        <v>0.17397747480735037</v>
+        <v>17.397747480735038</v>
       </c>
       <c r="X70">
         <v>68</v>
@@ -5856,7 +5856,7 @@
       </c>
       <c r="I71">
         <f t="shared" si="5"/>
-        <v>0.17519976324356321</v>
+        <v>17.519976324356321</v>
       </c>
       <c r="X71">
         <v>69</v>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="I72">
         <f t="shared" si="5"/>
-        <v>0.18029411764705883</v>
+        <v>18.02941176470588</v>
       </c>
       <c r="X72">
         <v>70</v>
@@ -5920,7 +5920,7 @@
       </c>
       <c r="I73">
         <f t="shared" si="5"/>
-        <v>0.18029411764705883</v>
+        <v>18.02941176470588</v>
       </c>
       <c r="X73">
         <v>71</v>
@@ -5952,7 +5952,7 @@
       </c>
       <c r="I74">
         <f t="shared" si="5"/>
-        <v>0.18484937116115815</v>
+        <v>18.484937116115816</v>
       </c>
       <c r="X74">
         <v>72</v>
@@ -5984,7 +5984,7 @@
       </c>
       <c r="I75">
         <f t="shared" si="5"/>
-        <v>0.18722659667541555</v>
+        <v>18.722659667541556</v>
       </c>
       <c r="X75">
         <v>73</v>
@@ -6016,7 +6016,7 @@
       </c>
       <c r="I76">
         <f t="shared" si="5"/>
-        <v>0.1912362159024957</v>
+        <v>19.12362159024957</v>
       </c>
       <c r="X76">
         <v>74</v>
@@ -6048,7 +6048,7 @@
       </c>
       <c r="I77">
         <f t="shared" si="5"/>
-        <v>0.19520646838001726</v>
+        <v>19.520646838001724</v>
       </c>
       <c r="X77">
         <v>75</v>
@@ -6080,7 +6080,7 @@
       </c>
       <c r="I78">
         <f t="shared" si="5"/>
-        <v>0.19497400346620467</v>
+        <v>19.497400346620466</v>
       </c>
       <c r="X78">
         <v>76</v>
@@ -6112,7 +6112,7 @@
       </c>
       <c r="I79">
         <f t="shared" si="5"/>
-        <v>0.1959030582804385</v>
+        <v>19.590305828043849</v>
       </c>
       <c r="X79">
         <v>77</v>
@@ -6144,7 +6144,7 @@
       </c>
       <c r="I80">
         <f t="shared" si="5"/>
-        <v>0.19543879907621248</v>
+        <v>19.54387990762125</v>
       </c>
       <c r="X80">
         <v>78</v>
@@ -6176,7 +6176,7 @@
       </c>
       <c r="I81">
         <f t="shared" si="5"/>
-        <v>0.19497400346620447</v>
+        <v>19.497400346620449</v>
       </c>
       <c r="X81">
         <v>79</v>
@@ -6208,7 +6208,7 @@
       </c>
       <c r="I82">
         <f t="shared" si="5"/>
-        <v>0.19636678200692043</v>
+        <v>19.636678200692042</v>
       </c>
       <c r="X82">
         <v>80</v>
@@ -6240,7 +6240,7 @@
       </c>
       <c r="I83">
         <f t="shared" si="5"/>
-        <v>0.19706136560069148</v>
+        <v>19.706136560069151</v>
       </c>
       <c r="X83">
         <v>81</v>
